--- a/test_piccolo.xlsx
+++ b/test_piccolo.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Desktop\Universit\App_Data_Intensive\app-data-intensive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{744512B8-04EB-48B4-876C-78ECADD97CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E69171-F427-4A94-9B65-26DDC64FF24E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test_piccolo" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>id,belongs_to_collection,budget,genres,homepage,imdb_id,original_language,original_title,overview,popularity,poster_path,production_companies,production_countries,release_date,runtime,spoken_languages,status,tagline,title,Keywords,cast,crew</t>
   </si>
@@ -53,19 +53,13 @@
   </si>
   <si>
     <t>3009,,16500000,"[{'id': 18, 'name': 'Drama'}, {'id': 10749, 'name': 'Romance'}]",http://becomingjane-themovie.com/,tt0416508,en,Becoming Jane,A biographical portrait of a pre-fame Jane Austen and her romance with a young Irishman.,7.829737,/iLNBdoaKzXNhZV4qbhJPkIEfLEg.jpg,"[{'name': 'Ecosse Films', 'id': 1267}, {'name': '2 Entertain', 'id': 2689}, {'name': 'Bueprint Pictures', 'id': 6342}]","[{'iso_3166_1': 'GB', 'name': 'United Kingdom'}, {'iso_3166_1': 'US', 'name': 'United States of America'}]",3/2/07,120,"[{'iso_639_1': 'en', 'name': 'English'}, {'iso_639_1': 'tr', 'name': 'Türkçe'}]",Released,Her own life is her greatest inspiration.,Becoming Jane,"[{'id': 392, 'name': 'england'}, {'id': 934, 'name': 'judge'}, {'id': 1605, 'name': 'new love'}, {'id': 2386, 'name': 'empowerment'}, {'id': 2755, 'name': 'country life'}, {'id': 2964, 'name': 'future'}, {'id': 3344, 'name': 'letter'}, {'id': 3703, 'name': 'law'}, {'id': 4663, 'name': 'lovers'}, {'id': 5376, 'name': 'creativity'}, {'id': 5923, 'name': 'sister'}, {'id': 10818, 'name': 'author'}, {'id': 14985, 'name': 'ireland'}, {'id': 18035, 'name': 'family'}]","[{'cast_id': 10, 'character': 'Jane Austen', 'credit_id': '52fe4378c3a36847f805699f', 'gender': 1, 'id': 1813, 'name': 'Anne Hathaway', 'order': 0, 'profile_path': '/jUMOKwSUBnTcMeN1HfhutiY49Ad.jpg'}, {'cast_id': 11, 'character': 'Tom Lefroy', 'credit_id': '52fe4378c3a36847f80569a3', 'gender': 2, 'id': 5530, 'name': 'James McAvoy', 'order': 1, 'profile_path': '/oPIfGm3mf4lbmO5pWwMvfTt5BM1.jpg'}, {'cast_id': 12, 'character': 'Mrs. Austen', 'credit_id': '52fe4378c3a36847f80569a7', 'gender': 1, 'id': 477, 'name': 'Julie Walters', 'order': 2, 'profile_path': '/f88FYv3EYWvbXaeTXyO56dWCbez.jpg'}, {'cast_id': 13, 'character': 'Mr. Austen', 'credit_id': '52fe4378c3a36847f80569ab', 'gender': 2, 'id': 2505, 'name': 'James Cromwell', 'order': 3, 'profile_path': '/f9HU6zS2K2DCRt2WoJBK61ElqPJ.jpg'}, {'cast_id': 14, 'character': 'Lady Gresham', 'credit_id': '52fe4378c3a36847f80569af', 'gender': 1, 'id': 10978, 'name': 'Maggie Smith', 'order': 4, 'profile_path': '/8OtS7JhL12Qa8QzSuZZAzNRbFnu.jpg'}, {'cast_id': 15, 'character': 'Henry Austen', 'credit_id': '52fe4378c3a36847f80569b3', 'gender': 2, 'id': 29234, 'name': 'Joe Anderson', 'order': 5, 'profile_path': '/qrz9007HeT1uDt3e0NVXFMWsQkA.jpg'}, {'cast_id': 16, 'character': 'Eliza de Feuillide', 'credit_id': '52fe4378c3a36847f80569b7', 'gender': 1, 'id': 29235, 'name': 'Lucy Cohu', 'order': 6, 'profile_path': '/oXaT4xAAZ8UNgX7wlDwmwO9nWBT.jpg'}, {'cast_id': 17, 'character': 'Mr. Wisley', 'credit_id': '52fe4378c3a36847f80569bb', 'gender': 2, 'id': 6366, 'name': 'Laurence Fox', 'order': 7, 'profile_path': '/9uZ1hr88BGJUWtIApEAxYfR0Ku1.jpg'}, {'cast_id': 18, 'character': 'Richter Langlois', 'credit_id': '52fe4378c3a36847f80569bf', 'gender': 2, 'id': 385, 'name': 'Ian Richardson', 'order': 8, 'profile_path': '/lcBldPUneC5Vzjhkh4btVCSjXhS.jpg'}, {'cast_id': 19, 'character': 'Cassandra Austen', 'credit_id': '52fe4378c3a36847f80569c3', 'gender': 1, 'id': 29236, 'name': 'Anna Maxwell Martin', 'order': 9, 'profile_path': '/rh3beeSyUKv7yAiyqEH2RnSDhh0.jpg'}, {'cast_id': 20, 'character': 'John Warren', 'credit_id': '52fe4378c3a36847f80569c7', 'gender': 2, 'id': 29237, 'name': 'Leo Bill', 'order': 10, 'profile_path': '/3OmwzhtvNsHXIKqYrqGrzt4xCKp.jpg'}, {'cast_id': 21, 'character': 'Lucy Lefroy', 'credit_id': '52fe4378c3a36847f80569cb', 'gender': 1, 'id': 29238, 'name': 'Jessica Ashworth', 'order': 11, 'profile_path': '/3NIKnL37sOGuWOGeZhzsz1q0BJo.jpg'}, {'cast_id': 22, 'character': 'Mr. Lefroy', 'credit_id': '52fe4378c3a36847f80569cf', 'gender': 2, 'id': 29239, 'name': 'Michael James Ford', 'order': 12, 'profile_path': None}, {'cast_id': 23, 'character': 'Robert Fowle', 'credit_id': '52fe4378c3a36847f80569d3', 'gender': 2, 'id': 29240, 'name': 'Tom Vaughan-Lawlor', 'order': 13, 'profile_path': '/taoZXCxhWdzHI0iNb3IVdeMYcXZ.jpg'}, {'cast_id': 30, 'character': 'Mr. Curtis', 'credit_id': '52fe4378c3a36847f80569f5', 'gender': 2, 'id': 33452, 'name': 'Chris McHallem', 'order': 14, 'profile_path': '/aUTRtF4KnyGTF0VmE63hA8kMZgn.jpg'}, {'cast_id': 36, 'character': 'Mrs. Radcliffe', 'credit_id': '5889fcb6c3a3681810005e25', 'gender': 1, 'id': 15737, 'name': 'Helen McCrory', 'order': 15, 'profile_path': '/jKBqL7Y6ToKRKSQ9kkgo7rOjMHS.jpg'}, {'cast_id': 37, 'character': 'Don Dogarty', 'credit_id': '5889fccb92514157570059aa', 'gender': 2, 'id': 1368268, 'name': 'Michael Patric', 'order': 16, 'profile_path': '/jsvqfYveFkWh6hnCoaQt6KKfLn6.jpg'}, {'cast_id': 38, 'character': 'Jenny', 'credit_id': '5961026f9251410b860c0700', 'gender': 0, 'id': 1847409, 'name': 'Elaine Murphy', 'order': 17, 'profile_path': '/fOZGFRRTgqzMyY1ysDzqGuYR0EQ.jpg'}]","[{'credit_id': '53569575c3a3687f54000051', 'department': 'Art', 'gender': 1, 'id': 6379, 'job': 'Production Design', 'name': 'Eve Stewart', 'profile_path': None}, {'credit_id': '52fe4378c3a36847f80569e5', 'department': 'Production', 'gender': 2, 'id': 43559, 'job': 'Executive Producer', 'name': 'Jeff Abberley', 'profile_path': None}, {'credit_id': '52fe4378c3a36847f80569eb', 'department': 'Production', 'gender': 1, 'id': 43560, 'job': 'Executive Producer', 'name': 'Julia Blackman', 'profile_path': None}, {'credit_id': '52fe4378c3a36847f8056971', 'department': 'Directing', 'gender': 2, 'id': 29226, 'job': 'Director', 'name': 'Julian Jarrold', 'profile_path': '/pyWwnd4dYjxSCynxmLkPO1JTzDV.jpg'}, {'credit_id': '52fe4378c3a36847f8056977', 'department': 'Production', 'gender': 2, 'id': 29227, 'job': 'Producer', 'name': 'Graham Broadbent', 'profile_path': None}, {'credit_id': '52fe4378c3a36847f805697d', 'department': 'Production', 'gender': 2, 'id': 29228, 'job': 'Producer', 'name': 'Robert Bernstein', 'profile_path': None}, {'credit_id': '52fe4378c3a36847f8056983', 'department': 'Production', 'gender': 2, 'id': 29229, 'job': 'Producer', 'name': 'Douglas Rae', 'profile_path': None}, {'credit_id': '52fe4378c3a36847f8056989', 'department': 'Writing', 'gender': 2, 'id': 29230, 'job': 'Screenplay', 'name': 'Kevin Hood', 'profile_path': None}, {'credit_id': '52fe4378c3a36847f805698f', 'department': 'Camera', 'gender': 2, 'id': 29231, 'job': 'Director of Photography', 'name': 'Eigil Bryld', 'profile_path': None}, {'credit_id': '535695a7c3a3687f3400007a', 'department': 'Costume &amp; Make-Up', 'gender': 0, 'id': 29233, 'job': 'Makeup Department Head', 'name': 'Veronica McAleer', 'profile_path': None}, {'credit_id': '52fe4378c3a36847f80569d9', 'department': 'Costume &amp; Make-Up', 'gender': 1, 'id': 43154, 'job': 'Costume Design', 'name': 'Eimer Ni Mhaoldomhnaigh', 'profile_path': None}, {'credit_id': '5356954bc3a3687f5400004f', 'department': 'Sound', 'gender': 2, 'id': 72854, 'job': 'Original Music Composer', 'name': 'Adrian Johnston', 'profile_path': '/2upTqCKUCClWQYNY8M4rlOFhQB2.jpg'}, {'credit_id': '52fe4378c3a36847f80569f1', 'department': 'Production', 'gender': 2, 'id': 118168, 'job': 'Executive Producer', 'name': 'Tim Haslam', 'profile_path': None}, {'credit_id': '569d71d4c3a36858c6004a51', 'department': 'Directing', 'gender': 0, 'id': 1547156, 'job': 'Script Supervisor', 'name': 'Jeanette McGrath', 'profile_path': None}, {'credit_id': '569d71e2c3a36858ce00459a', 'department': 'Camera', 'gender': 0, 'id': 1565505, 'job': 'Still Photographer', 'name': 'Colm Hogan', 'profile_path': None}]"</t>
-  </si>
-  <si>
-    <t>3010,"[{'id': 10194, 'name': 'Toy Story Collection', 'poster_path': '/7G9915LfUQ2lVfwMEEhDsn3kT4B.jpg', 'backdrop_path': '/9FBwqcd9IRruEDUrTdcaafOMKUq.jpg'}]",90000000,"[{'id': 16, 'name': 'Animation'}, {'id': 35, 'name': 'Comedy'}, {'id': 10751, 'name': 'Family'}]",http://toystory.disney.com/toy-story-2,tt0120363,en,Toy Story 2,"Andy heads off to Cowboy Camp, leaving his toys to their own devices. Things shift into high gear when an obsessive toy collector named Al McWhiggen, owner of Al's Toy Barn kidnaps Woody. Andy's toys mount a daring rescue mission, Buzz Lightyear meets his match and Woody has to decide where he and his heart truly belong.",17.547693,/3CmK3XurcLeUyMifCR28ibzupbB.jpg,"[{'name': 'Pixar Animation Studios', 'id': 3}]","[{'iso_3166_1': 'US', 'name': 'United States of America'}]",10/30/99,92,"[{'iso_639_1': 'en', 'name': 'English'}]",Released,The toys are back!,Toy Story 2,"[{'id': 2598, 'name': 'museum'}, {'id': 3246, 'name': 'prosecution'}, {'id': 3394, 'name': 'identity crisis'}, {'id': 3800, 'name': 'airplane'}, {'id': 4294, 'name': 'flea market'}, {'id': 4295, 'name': 'collector'}, {'id': 4298, 'name': 'teamwork'}, {'id': 6054, 'name': 'friendship'}, {'id': 18031, 'name': 'rescue team'}, {'id': 175343, 'name': 'garage sale'}, {'id': 179431, 'name': 'duringcreditsstinger'}, {'id': 187065, 'name': 'toy comes to life'}, {'id': 209386, 'name': 'personification'}, {'id': 209387, 'name': 'inanimate objects coming to life'}]","[{'cast_id': 18, 'character': 'Woody (voice)', 'credit_id': '52fe4284c3a36847f80250d1', 'gender': 2, 'id': 31, 'name': 'Tom Hanks', 'order': 0, 'profile_path': '/pQFoyx7rp09CJTAb932F2g8Nlho.jpg'}, {'cast_id': 28, 'character': 'Buzz Lightyear (voice)', 'credit_id': '52fe4284c3a36847f80250f5', 'gender': 2, 'id': 12898, 'name': 'Tim Allen', 'order': 1, 'profile_path': '/uX2xVf6pMmPepxnvFWyBtjexzgY.jpg'}, {'cast_id': 19, 'character': 'Jessie (voice)', 'credit_id': '52fe4284c3a36847f80250d5', 'gender': 1, 'id': 3234, 'name': 'Joan Cusack', 'order': 2, 'profile_path': '/3jcrXcFYoSKEUvokzqrQ2UJGtw.jpg'}, {'cast_id': 20, 'character': 'Prospector (voice)', 'credit_id': '52fe4284c3a36847f80250d9', 'gender': 2, 'id': 7090, 'name': 'Kelsey Grammer', 'order': 3, 'profile_path': '/8h3ThicYhj6fEMSMtSdzFXrUyx2.jpg'}, {'cast_id': 21, 'character': 'Mr. Potato Head (voice)', 'credit_id': '52fe4284c3a36847f80250dd', 'gender': 2, 'id': 7167, 'name': 'Don Rickles', 'order': 4, 'profile_path': '/h5BcaDMPRVLHLDzbQavec4xfSdt.jpg'}, {'cast_id': 22, 'character': 'Slinky Dog (voice)', 'credit_id': '52fe4284c3a36847f80250e1', 'gender': 2, 'id': 12899, 'name': 'Jim Varney', 'order': 5, 'profile_path': '/eIo2jVVXYgjDtaHoF19Ll9vtW7h.jpg'}, {'cast_id': 23, 'character': 'Rex (voice)', 'credit_id': '52fe4284c3a36847f80250e5', 'gender': 2, 'id': 12900, 'name': 'Wallace Shawn', 'order': 6, 'profile_path': '/oGE6JqPP2xH4tNORKNqxbNPYi7u.jpg'}, {'cast_id': 24, 'character': 'Hamm (voice)', 'credit_id': '52fe4284c3a36847f80250e9', 'gender': 2, 'id': 7907, 'name': 'John Ratzenberger', 'order': 7, 'profile_path': '/yGechiKWL6TJDfVE2KPSJYqdMsY.jpg'}, {'cast_id': 25, 'character': 'Bo Peep (voice)', 'credit_id': '52fe4284c3a36847f80250ed', 'gender': 1, 'id': 8873, 'name': 'Annie Potts', 'order': 8, 'profile_path': '/eryXT84RL41jHSJcMy4kS3u9y6w.jpg'}, {'cast_id': 26, 'character': 'Al McWhiggin (voice)', 'credit_id': '52fe4284c3a36847f80250f1', 'gender': 2, 'id': 4201, 'name': 'Wayne Knight', 'order': 9, 'profile_path': '/oW9aeZwkz1S1IMjQGtd9mnvlEax.jpg'}, {'cast_id': 29, 'character': 'Andy (voice)', 'credit_id': '52fe4284c3a36847f80250f9', 'gender': 0, 'id': 1116442, 'name': 'John Morris', 'order': 10, 'profile_path': '/vYGyvK4LzeaUCoNSHtsuqJUY15M.jpg'}, {'cast_id': 30, 'character': ""Andy's Mom (voice)"", 'credit_id': '52fe4284c3a36847f80250fd', 'gender': 1, 'id': 12133, 'name': 'Laurie Metcalf', 'order': 11, 'profile_path': '/unMMIT60eoBM2sN2nyR7EZ2BvvD.jpg'}, {'cast_id': 31, 'character': 'Mrs. Potato Head (voice)', 'credit_id': '52fe4284c3a36847f8025101', 'gender': 1, 'id': 61964, 'name': 'Estelle Harris', 'order': 12, 'profile_path': '/equDBtZgBkO7e8QKpNokDz9EbY9.jpg'}, {'cast_id': 32, 'character': 'Sarge (voice)', 'credit_id': '52fe4284c3a36847f8025105', 'gender': 2, 'id': 8655, 'name': 'R. Lee Ermey', 'order': 13, 'profile_path': '/r8GBqFBjypLUP9VVqDqfZ7wYbSs.jpg'}, {'cast_id': 33, 'character': 'Barbie (voice)', 'credit_id': '52fe4284c3a36847f8025109', 'gender': 1, 'id': 63978, 'name': 'Jodi Benson', 'order': 14, 'profile_path': '/9tOpKgu6cBBL29LxEC21fOVVVPW.jpg'}, {'cast_id': 37, 'character': 'The Cleaner (voice)', 'credit_id': '55f99947c3a3686782002df3', 'gender': 0, 'id': 123037, 'name': 'Jonathan Harris', 'order': 15, 'profile_path': '/ieLNe2cBJTJ2Aeb3QAXVp6w1sKu.jpg'}, {'cast_id': 38, 'character': 'Wheezy (voice)', 'credit_id': '55f99961c3a368677f002ed8', 'gender': 0, 'id': 7911, 'name': 'Joe Ranft', 'order': 16, 'profile_path': '/f1BoWC2JbCcfP1e5hKfGsxkHzVU.jpg'}, {'cast_id': 39, 'character': 'Emperor Zurg (voice)', 'credit_id': '55f99979c3a368678b0030dc', 'gender': 2, 'id': 7, 'name': 'Andrew Stanton', 'order': 17, 'profile_path': '/pvQWsu0qc8JFQhMVJkTHuexUAa1.jpg'}, {'cast_id': 40, 'character': 'Aliens (voice)', 'credit_id': '55f9998fc3a368678e002c91', 'gender': 2, 'id': 7882, 'name': 'Jeff Pidgeon', 'order': 18, 'profile_path': '/yLddkg5HcgbJg00cS13GVBnP0HY.jpg'}, {'cast_id': 57, 'character': ""Woody's Roundup Announcer (voice)"", 'credit_id': '55f99ba1c3a368678b003121', 'gender': 2, 'id': 35219, 'name': 'Corey Burton', 'order': 19, 'profile_path': '/2YzqhrgSpWqm8lxZoyIR4F0nusM.jpg'}, {'cast_id': 58, 'character': ""Blue Rock 'Em Sock 'Em Robot (voice)"", 'credit_id': '55f99c079251410812002ccf', 'gender': 2, 'id': 7879, 'name': 'John Lasseter', 'order': 20, 'profile_path': '/7EdqiNbr4FRjIhKHyPPdFfEEEFG.jpg'}, {'cast_id': 59, 'character': 'Mom at yard sale (voice)', 'credit_id': '55f99c39925141080c002c26', 'gender': 0, 'id': 84493, 'name': 'Mickie McGowan', 'order': 21, 'profile_path': '/k7TjJBfINsg8vLQxJwos6XObAD6.jpg'}, {'cast_id': 60, 'character': 'Airline Rep / sign-off voice / Mr. Konishi (voice)', 'credit_id': '55f99c66c3a368677d002cab', 'gender': 2, 'id': 61969, 'name': 'Phil Proctor', 'order': 22, 'profile_path': '/15jVORFFWoRMcqKoeVJQXyEfLVz.jpg'}, {'cast_id': 61, 'character': ""Red Rock 'Em Sock 'Em Robot (voice)"", 'credit_id': '55f99c97925141080f002e8e', 'gender': 2, 'id': 8, 'name': 'Lee Unkrich', 'order': 23, 'profile_path': '/bdTCCXjgOV3YyaNmLGYGOxFQMOc.jpg'}]","[{'credit_id': '52fe4284c3a36847f8025073', 'department': 'Writing', 'gender': 2, 'id': 7, 'job': 'Screenplay', 'name': 'Andrew Stanton', 'profile_path': '/pvQWsu0qc8JFQhMVJkTHuexUAa1.jpg'}, {'credit_id': '589465209251414271004c33', 'department': 'Writing', 'gender': 2, 'id': 7, 'job': 'Original Story', 'name': 'Andrew Stanton', 'profile_path': '/pvQWsu0qc8JFQhMVJkTHuexUAa1.jpg'}, {'credit_id': '52fe4284c3a36847f80250b5', 'department': 'Editing', 'gender': 2, 'id': 8, 'job': 'Editor', 'name': 'Lee Unkrich', 'profile_path': '/bdTCCXjgOV3YyaNmLGYGOxFQMOc.jpg'}, {'credit_id': '589464aec3a36840b8004dcb', 'department': 'Directing', 'gender': 2, 'id': 8, 'job': 'Co-Director', 'name': 'Lee Unkrich', 'profile_path': '/bdTCCXjgOV3YyaNmLGYGOxFQMOc.jpg'}, {'credit_id': '5751af2a9251412b0f00291d', 'department': 'Production', 'gender': 2, 'id': 9, 'job': 'Production Manager', 'name': 'Graham Walters', 'profile_path': '/kdiS9atzqHdD8WZhpsYMHPCOzi1.jpg'}, {'credit_id': '52fe4284c3a36847f802506d', 'department': 'Directing', 'gender': 2, 'id': 7879, 'job': 'Director', 'name': 'John Lasseter', 'profile_path': '/7EdqiNbr4FRjIhKHyPPdFfEEEFG.jpg'}, {'credit_id': '5751add29251411a6c0029e4', 'department': 'Writing', 'gender': 2, 'id': 7879, 'job': 'Original Story', 'name': 'John Lasseter', 'profile_path': '/7EdqiNbr4FRjIhKHyPPdFfEEEFG.jpg'}, {'credit_id': '52fe4284c3a36847f80250af', 'department': 'Editing', 'gender': 2, 'id': 12914, 'job': 'Editor', 'name': 'David Ian Salter', 'profile_path': None}, {'credit_id': '58946dd092514142710052c7', 'department': 'Editing', 'gender': 2, 'id': 1918, 'job': 'Additional Editing', 'name': 'Richard Halsey', 'profile_path': None}, {'credit_id': '58946621c3a36840a7004f03', 'department': 'Sound', 'gender': 2, 'id': 2216, 'job': 'Sound Designer', 'name': 'Gary Rydstrom', 'profile_path': '/jZpr1nVfO7lldWI0YtmP1FGw7Rj.jpg'}, {'credit_id': '58947045925141426e0059a8', 'department': 'Sound', 'gender': 2, 'id': 2216, 'job': 'Sound Re-Recording Mixer', 'name': 'Gary Rydstrom', 'profile_path': '/jZpr1nVfO7lldWI0YtmP1FGw7Rj.jpg'}, {'credit_id': '589467f7c3a36840a4004d71', 'department': 'Visual Effects', 'gender': 1, 'id': 7881, 'job': 'Character Designer', 'name': 'Jill Culton', 'profile_path': None}, {'credit_id': '589465529251414271004c4a', 'department': 'Sound', 'gender': 2, 'id': 7885, 'job': 'Music', 'name': 'Randy Newman', 'profile_path': '/w0JzfoiM25nrnxYOzosPHRq6mlE.jpg'}, {'credit_id': '589482249251414271006470', 'department': 'Sound', 'gender': 2, 'id': 7885, 'job': 'Orchestrator', 'name': 'Randy Newman', 'profile_path': '/w0JzfoiM25nrnxYOzosPHRq6mlE.jpg'}, {'credit_id': '58946db9925141426c0055d4', 'department': 'Editing', 'gender': 2, 'id': 7886, 'job': 'Additional Editing', 'name': 'Jim Stewart', 'profile_path': None}, {'credit_id': '589468409251414275004dab', 'department': 'Visual Effects', 'gender': 0, 'id': 7888, 'job': 'Visual Development', 'name': 'Harley Jessup', 'profile_path': None}, {'credit_id': '589465a1925141427e004bb0', 'department': 'Crew', 'gender': 2, 'id': 7892, 'job': 'Supervising Animator', 'name': 'Glenn McQueen', 'profile_path': None}, {'credit_id': '58946bd9c3a36840a2005228', 'department': 'Visual Effects', 'gender': 0, 'id': 7893, 'job': 'Animation', 'name': 'Rich Quade', 'profile_path': None}, {'credit_id': '5722978792514176da000397', 'department': 'Lighting', 'gender': 0, 'id': 7894, 'job': 'Lighting Supervisor', 'name': 'Jean-Claude Kalache', 'profile_path': None}, {'credit_id': '589468dfc3a36840a70050e0', 'department': 'Art', 'gender': 0, 'id': 7898, 'job': 'Set Dresser', 'name': 'Sophie Vincelette', 'profile_path': None}, {'credit_id': '52fe4284c3a36847f80250c1', 'department': 'Production', 'gender': 1, 'id': 7902, 'job': 'Casting', 'name': 'Ruth Lambert', 'profile_path': None}, {'credit_id': '52fe4284c3a36847f80250bb', 'department': 'Production', 'gender': 1, 'id': 7903, 'job': 'Casting', 'name': 'Mary Hidalgo', 'profile_path': None}, {'credit_id': '58946806c3a36840ab004e14', 'department': 'Visual Effects', 'gender': 2, 'id': 7918, 'job': 'Character Designer', 'name': 'Bud Luckey', 'profile_path': '/pcCh7G19FKMNijmPQg1PMH1btic.jpg'}, {'credit_id': '58946816c3a368409f004d6b', 'department': 'Visual Effects', 'gender': 0, 'id': 7921, 'job': 'Character Designer', 'name': 'Ken Mitchroney', 'profile_path': None}, {'credit_id': '572f6e65c3a36874eb0006b0', 'department': 'Visual Effects', 'gender': 0, 'id': 7929, 'job': 'Animation', 'name': 'Angus MacLane', 'profile_path': '/7U1mEvzHGNJiC07EOhKIKSl3Qiy.jpg'}, {'credit_id': '572b81d6c3a36848120030c7', 'department': 'Art', 'gender': 0, 'id': 7942, 'job': 'Art Direction', 'name': 'Bryn Imagire', 'profile_path': None}, {'credit_id': '5894676cc3a368409f004d0e', 'department': 'Visual Effects', 'gender': 0, 'id': 7942, 'job': 'Shading', 'name': 'Bryn Imagire', 'profile_path': None}, {'credit_id': '5894679ec3a36840ab004dc5', 'department': 'Visual Effects', 'gender': 0, 'id': 7943, 'job': 'CG Painter', 'name': 'Glenn Kim', 'profile_path': None}, {'credit_id': '572f677bc3a3682faa000adf', 'department': 'Visual Effects', 'gender': 0, 'id': 7944, 'job': 'CG Painter', 'name': 'Laura Phillips', 'profile_path': None}, {'credit_id': '58946797925141427800527b', 'department': 'Visual Effects', 'gender': 0, 'id': 7948, 'job': 'CG Painter', 'name': 'Yvonne Herbst', 'profile_path': None}, {'credit_id': '572e2541c3a3680fe50035d8', 'department': 'Visual Effects', 'gender': 0, 'id': 7949, 'job': 'CG Painter', 'name': 'Robin Cooper', 'profile_path': None}, {'credit_id': '57214ef0c3a3681193000f9e', 'department': 'Visual Effects', 'gender': 0, 'id': 7952, 'job': 'CG Painter', 'name': 'Randy Berrett', 'profile_path': None}, {'credit_id': '589467d4c3a36840b1004fbe', 'department': 'Visual Effects', 'gender': 0, 'id': 7952, 'job': 'Character Designer', 'name': 'Randy Berrett', 'profile_path': None}, {'credit_id': '5894680ec3a36840b1004ff0', 'department': 'Visual Effects', 'gender': 0, 'id': 7956, 'job': 'Character Designer', 'name': 'Nathaniel McLaughlin', 'profile_path': None}, {'credit_id': '589467bac3a36840b500482c', 'department': 'Art', 'gender': 2, 'id': 7960, 'job': 'Sculptor', 'name': 'Jerome Ranft', 'profile_path': '/pmiQZq5JEhCjhdsIuMaP6Fkt0e9.jpg'}, {'credit_id': '589467c3925141427e004d32', 'department': 'Art', 'gender': 0, 'id': 7961, 'job': 'Sculptor', 'name': 'Norm DeCarlo', 'profile_path': None}, {'credit_id': '5750ccbb925141088c00044e', 'department': 'Directing', 'gender': 0, 'id': 7980, 'job': 'Layout', 'name': 'Derek Williams', 'profile_path': None}, {'credit_id': '589468e8c3a36840a4004e09', 'department': 'Art', 'gender': 0, 'id': 7980, 'job': 'Set Dresser', 'name': 'Derek Williams', 'profile_path': None}, {'credit_id': '5894688f9251414271004ed1', 'department': 'Directing', 'gender': 2, 'id': 7981, 'job': 'Layout', 'name': 'Robert Anderson', 'profile_path': None}, {'credit_id': '576d6b309251414105001a04', 'department': 'Directing', 'gender': 0, 'id': 7984, 'job': 'Layout', 'name': 'Mark Sanford', 'profile_path': None}, {'credit_id': '58946b5a925141428000527b', 'department': 'Visual Effects', 'gender': 0, 'id': 7995, 'job': 'Animation', 'name': 'Billy Merritt', 'profile_path': None}, {'credit_id': '58946bd0925141427a004bee', 'department': 'Visual Effects', 'gender': 0, 'id': 7996, 'job': 'Animation', 'name': 'Brett Pulliam', 'profile_path': None}, {'credit_id': '58946b97925141427800558b', 'department': 'Visual Effects', 'gender': 0, 'id': 7998, 'job': 'Animation', 'name': ""Bret 'Brook' Parker"", 'profile_path': '/776ZYJGQO4Wer1cDq9XXAZ0z4C1.jpg'}, {'credit_id': '58946c16925141426c0054c0', 'department': 'Visual Effects', 'gender': 0, 'id': 7999, 'job': 'Animation', 'name': 'Gini Cruz Santos', 'profile_path': None}, {'credit_id': '589468cc925141428000508f', 'department': 'Art', 'gender': 0, 'id': 8002, 'job': 'Set Dresser', 'name': 'Jon Childress Farmer', 'profile_path': None}, {'credit_id': '589465c5c3a36840ab004c96', 'department': 'Costume &amp; Make-Up', 'gender': 0, 'id': 8007, 'job': 'Set Dressing Supervisor', 'name': 'David Eisenmann', 'profile_path': None}, {'credit_id': '58946c3b92514142780055fa', 'department': 'Visual Effects', 'gender': 0, 'id': 8010, 'job': 'Animation', 'name': 'Doug Sweetland', 'profile_path': None}, {'credit_id': '589469db925141426e0054a1', 'department': 'Visual Effects', 'gender': 2, 'id': 8011, 'job': 'Animation', 'name': 'Scott Clark', 'profile_path': None}, {'credit_id': '576eb2fec3a3683c24004494', 'department': 'Visual Effects', 'gender': 0, 'id': 8013, 'job': 'Animation', 'name': 'Andrew Gordon', 'profile_path': None}, {'credit_id': '58946bc0c3a36840ab0050cb', 'department': 'Visual Effects', 'gender': 0, 'id': 8017, 'job': 'Animation', 'name': 'Jeff Pratt', 'profile_path': None}, {'credit_id': '58946a03925141426e0054d3', 'department': 'Visual Effects', 'gender': 0, 'id': 8018, 'job': 'Animation', 'name': 'David DeVan', 'profile_path': None}, {'credit_id': '58946a60c3a36840a70051e8', 'department': 'Visual Effects', 'gender': 0, 'id': 8019, 'job': 'Animation', 'name': 'Stephen Gregory', 'profile_path': None}, {'credit_id': '58946ae2c3a36840a7005244', 'department': 'Visual Effects', 'gender': 0, 'id': 8020, 'job': 'Animation', 'name': 'John Kahrs', 'profile_path': None}, {'credit_id': '58946bb8c3a36840a2005212', 'department': 'Visual Effects', 'gender': 0, 'id': 8021, 'job': 'Animation', 'name': 'Bobby Podesta', 'profile_path': None}, {'credit_id': '58946911c3a36840ab004ec9', 'department': 'Visual Effects', 'gender': 0, 'id': 8023, 'job': 'Animation Director', 'name': 'Kyle Balda', 'profile_path': '/jR8iAP6uC0V42KbUG87qBIUO3Hj.jpg'}, {'credit_id': '5894699b92514142780053dd', 'department': 'Visual Effects', 'gender': 0, 'id': 8024, 'job': 'Animation', 'name': 'Stephen Barnes', 'profile_path': None}, {'credit_id': '589469abc3a36840ab004f3f', 'department': 'Visual Effects', 'gender': 0, 'id': 8025, 'job': 'Animation', 'name': 'Michael Berenstein', 'profile_path': None}, {'credit_id': '589469e4c3a36840a4004eaf', 'department': 'Visual Effects', 'gender': 0, 'id': 8026, 'job': 'Animation', 'name': 'Brett Coderre', 'profile_path': None}, {'credit_id': '58946a67925141426e00552e', 'department': 'Visual Effects', 'gender': 2, 'id': 8029, 'job': 'Animation', 'name': 'Jimmy Hayward', 'profile_path': '/lTDRpudEY7BDwTefXbXzMlmb0ui.jpg'}, {'credit_id': '58946aeb9251414271005091', 'department': 'Visual Effects', 'gender': 0, 'id': 8030, 'job': 'Animation', 'name': 'Nancy Kato', 'profile_path': None}, {'credit_id': '589469a39251414271004f96', 'department': 'Visual Effects', 'gender': 0, 'id': 8031, 'job': 'Animation', 'name': 'Bobby Beck', 'profile_path': None}, {'credit_id': '589469fbc3a36840a7005192', 'department': 'Visual Effects', 'gender': 0, 'id': 8033, 'job': 'Animation', 'name': 'Tim Crawfurd', 'profile_path': None}, {'credit_id': '58946a57925141426e005524', 'department': 'Visual Effects', 'gender': 0, 'id': 8034, 'job': 'Animation', 'name': 'Ike Feldman', 'profile_path': None}, {'credit_id': '58946b0c92514142710050a3', 'department': 'Visual Effects', 'gender': 0, 'id': 8036, 'job': 'Animation', 'name': 'Wendell Lee', 'profile_path': None}, {'credit_id': '58946b36925141426c005424', 'department': 'Visual Effects', 'gender': 0, 'id': 8037, 'job': 'Animation', 'name': 'Daniel Mason', 'profile_path': None}, {'credit_id': '58946b7bc3a36840ab005098', 'department': 'Visual Effects', 'gender': 0, 'id': 8039, 'job': 'Animation', 'name': 'James Ford Murphy', 'profile_path': None}, {'credit_id': '58946c0dc3a36840b5004b12', 'department': 'Visual Effects', 'gender': 0, 'id': 8041, 'job': 'Animation', 'name': 'Robert H. Russ', 'profile_path': None}, {'credit_id': '58946af3c3a36840a7005255', 'department': 'Visual Effects', 'gender': 0, 'id': 8043, 'job': 'Animation', 'name': 'Patty Kihm Stevenson', 'profile_path': None}, {'credit_id': '58946c49925141427e005040', 'department': 'Visual Effects', 'gender': 0, 'id': 8044, 'job': 'Animation', 'name': 'David Tart', 'profile_path': None}, {'credit_id': '58946b5292514142710050ec', 'department': 'Visual Effects', 'gender': 0, 'id': 8045, 'job': 'Animation', 'name': 'Jon Mead', 'profile_path': None}, {'credit_id': '58946b83c3a36840b5004abd', 'department': 'Visual Effects', 'gender': 0, 'id': 8047, 'job': 'Animation', 'name': 'Peter Nash', 'profile_path': None}, {'credit_id': '58946bafc3a36840a2005208', 'department': 'Visual Effects', 'gender': 0, 'id': 8048, 'job': 'Animation', 'name': 'Sanjay Patel', 'profile_path': None}, {'credit_id': '58946c03c3a36840b10052a9', 'department': 'Visual Effects', 'gender': 0, 'id': 8049, 'job': 'Animation', 'name': 'Roger Rose', 'profile_path': None}, {'credit_id': '58946c29925141426e00568e', 'department': 'Visual Effects', 'gender': 0, 'id': 8050, 'job': 'Animation', 'name': 'Alan Sperling', 'profile_path': None}, {'credit_id': '58946c32c3a36840b80052a3', 'department': 'Visual Effects', 'gender': 0, 'id': 8051, 'job': 'Animation', 'name': 'Ross Stevenson', 'profile_path': None}, {'credit_id': '58946c54c3a36840a200527f', 'department': 'Visual Effects', 'gender': 0, 'id': 8052, 'job': 'Animation', 'name': 'J. Warren Trezevant', 'profile_path': None}, {'credit_id': '58946c6ec3a36840a7005368', 'department': 'Visual Effects', 'gender': 0, 'id': 8054, 'job': 'Animation', 'name': 'Adam Wood', 'profile_path': None}, {'credit_id': '58946c65c3a36840a400508b', 'department': 'Visual Effects', 'gender': 0, 'id': 8055, 'job': 'Animation', 'name': 'Tasha Wedeen', 'profile_path': None}, {'credit_id': '58946c82925141426e0056c3', 'department': 'Visual Effects', 'gender': 0, 'id': 8056, 'job': 'Animation', 'name': 'Kureha Yokoo', 'profile_path': None}, {'credit_id': '58946c8fc3a36840a40050a7', 'department': 'Visual Effects', 'gender': 0, 'id': 8058, 'job': 'Fix Animator', 'name': 'Paul Mendoza', 'profile_path': None}, {'credit_id': '58946dc4925141427500517b', 'department': 'Editing', 'gender': 2, 'id': 8063, 'job': 'Additional Editing', 'name': 'Ken Schretzmann', 'profile_path': '/pGu6ROvz7UC6guMWOfkHi7et7Wi.jpg'}, {'credit_id': '58946d0ac3a36840b5004bc3', 'department': 'Crew', 'gender': 0, 'id': 8064, 'job': 'Second Film Editor', 'name': 'Robert Grahamjones', 'profile_path': None}, {'credit_id': '58946e0292514142750051ab', 'department': 'Editing', 'gender': 0, 'id': 8065, 'job': 'Additional Editorial Assistant', 'name': 'Torbin Xan Bullock', 'profile_path': None}, {'credit_id': '58946e5f92514142780057a7', 'department': 'Editing', 'gender': 0, 'id': 8066, 'job': 'Additional Editorial Assistant', 'name': 'Katherine Ringgold', 'profile_path': '/se4SkPHGzo7RHi9kXbfgyFvLErH.jpg'}, {'credit_id': '58946e24925141428000548c', 'department': 'Editing', 'gender': 0, 'id': 8071, 'job': 'Additional Editorial Assistant', 'name': 'Axel Geddes', 'profile_path': None}, {'credit_id': '58946e1c92514142750051bf', 'department': 'Editing', 'gender': 0, 'id': 8073, 'job': 'Additional Editorial Assistant', 'name': 'Chris Vallance', 'profile_path': None}, {'credit_id': '58946e7ec3a36840a2005407', 'department': 'Editing', 'gender': 0, 'id': 8074, 'job': 'Additional Editorial Assistant', 'name': 'Mark Yeager', 'profile_path': None}, {'credit_id': '58946dfa92514142710052de', 'department': 'Editing', 'gender': 2, 'id': 8075, 'job': 'Additional Editorial Assistant', 'name': 'Luis Alvarez y Alvarez', 'profile_path': None}, {'credit_id': '58946e0cc3a368409f0051f0', 'department': 'Editing', 'gender': 0, 'id': 8076, 'job': 'Additional Editorial Assistant', 'name': 'Jack Curtis Dubowsky', 'profile_path': None}, {'credit_id': '58946f8bc3a36840ab005375', 'department': 'Camera', 'gender': 0, 'id': 8134, 'job': 'Camera Department Manager', 'name': 'Perrin Cutting', 'profile_path': None}, {'credit_id': '58946f98925141426c005751', 'department': 'Camera', 'gender': 0, 'id': 8135, 'job': 'Camera Supervisor', 'name': 'Louis Rivera', 'profile_path': None}, {'credit_id': '574f14a39251415c9200007d', 'department': 'Camera', 'gender': 0, 'id': 8138, 'job': 'Camera Technician', 'name': 'Don Conway', 'profile_path': None}, {'credit_id': '58946fbb92514142800055c9', 'department': 'Production', 'gender': 0, 'id': 8142, 'job': 'Production Accountant', 'name': 'Catherine Roehl', 'profile_path': None}, {'credit_id': '5751aed2c3a3686b870011e1', 'department': 'Crew', 'gender': 0, 'id': 8153, 'job': 'Post Production Supervisor', 'name': 'Paul Cichocki', 'profile_path': None}, {'credit_id': '58948125c3a36840b5005cc7', 'department': 'Sound', 'gender': 0, 'id': 8158, 'job': 'Supervising Sound Editor', 'name': 'Michael Silvers', 'profile_path': None}, {'credit_id': '5894814992514142710063c3', 'department': 'Sound', 'gender': 0, 'id': 8159, 'job': 'Sound Effects Editor', 'name': 'Shannon Mills', 'profile_path': None}, {'credit_id': '589481aec3a36840a2006669', 'department': 'Sound', 'gender': 2, 'id': 8172, 'job': 'Supervising Music Editor', 'name': 'Bruno Coon', 'profile_path': None}, {'credit_id': '5751adeb9251413be80011c4', 'department': 'Writing', 'gender': 2, 'id': 12890, 'job': 'Original Story', 'name': 'Pete Docter', 'profile_path': '/r6ngPgnReA3RHmKjmSoVsc6Awjp.jpg'}, {'credit_id': '589469b3c3a36840a700515c', 'department': 'Visual Effects', 'gender': 2, 'id': 12905, 'job': 'Animation', 'name': 'Ash Brannon', 'profile_path': '/6ueWgPEEBHvS3De2BHYQnYjRTig.jpg'}, {'credit_id': '5751ae02c3a3683772002b74', 'department': 'Writing', 'gender': 2, 'id': 12905, 'job': 'Original Story', 'name': 'Ash Brannon', 'profile_path': '/6ueWgPEEBHvS3De2BHYQnYjRTig.jpg'}, {'credit_id': '589464bdc3a36840ab004bf1', 'department': 'Directing', 'gender': 2, 'id': 12905, 'job': 'Co-Director', 'name': 'Ash Brannon', 'profile_path': '/6ueWgPEEBHvS3De2BHYQnYjRTig.jpg'}, {'credit_id': '589467dac3a368409f004d4c', 'department': 'Visual Effects', 'gender': 2, 'id': 12905, 'job': 'Character Designer', 'name': 'Ash Brannon', 'profile_path': '/6ueWgPEEBHvS3De2BHYQnYjRTig.jpg'}, {'credit_id': '52fe4284c3a36847f8025079', 'department': 'Writing', 'gender': 1, 'id': 12906, 'job': 'Screenplay', 'name': 'Rita Hsiao', 'profile_path': None}, {'credit_id': '52fe4284c3a36847f802507f', 'department': 'Writing', 'gender': 0, 'id': 12907, 'job': 'Screenplay', 'name': 'Doug Chamberlin', 'profile_path': None}, {'credit_id': '52fe4284c3a36847f8025085', 'department': 'Writing', 'gender': 0, 'id': 12908, 'job': 'Screenplay', 'name': 'Chris Webb', 'profile_path': None}, {'credit_id': '52fe4284c3a36847f802508b', 'department': 'Production', 'gender': 0, 'id': 12909, 'job': 'Producer', 'name': 'Karen Robert Jackson', 'profile_path': None}, {'credit_id': '52fe4284c3a36847f8025091', 'department': 'Production', 'gender': 1, 'id': 12910, 'job': 'Executive Producer', 'name': 'Sarah McArthur', 'profile_path': None}, {'credit_id': '52fe4284c3a36847f8025097', 'department': 'Production', 'gender': 0, 'id': 12911, 'job': 'Producer', 'name': 'Helene Plotkin', 'profile_path': None}, {'credit_id': '52fe4284c3a36847f80250a3', 'department': 'Camera', 'gender': 1, 'id': 12912, 'job': 'Director of Photography', 'name': 'Sharon Calahan', 'profile_path': None}, {'credit_id': '52fe4284c3a36847f80250a9', 'department': 'Editing', 'gender': 0, 'id': 12913, 'job': 'Editor', 'name': 'Edie Bleiman', 'profile_path': None}, {'credit_id': '52fe4284c3a36847f80250c7', 'department': 'Art', 'gender': 0, 'id': 12915, 'job': 'Production Design', 'name': 'William Cone', 'profile_path': None}, {'credit_id': '52fe4284c3a36847f80250cd', 'department': 'Art', 'gender': 0, 'id': 12916, 'job': 'Production Design', 'name': 'Jim Pearson', 'profile_path': None}, {'credit_id': '5894681dc3a36840ab004e25', 'department': 'Visual Effects', 'gender': 0, 'id': 12916, 'job': 'Character Designer', 'name': 'Jim Pearson', 'profile_path': None}, {'credit_id': '58948140c3a36840a200661a', 'department': 'Sound', 'gender': 1, 'id': 15893, 'job': 'Sound Effects Editor', 'name': 'Teresa Eckton', 'profile_path': None}, {'credit_id': '5894813092514142710063a9', 'department': 'Sound', 'gender': 2, 'id': 15894, 'job': 'Sound Designer', 'name': 'Tom Myers', 'profile_path': None}, {'credit_id': '563d2647c3a36862da001019', 'department': 'Sound', 'gender': 0, 'id': 16497, 'job': 'Music Editor', 'name': 'Lisa Jaime', 'profile_path': None}, {'credit_id': '58946571c3a36840ab004c5d', 'department': 'Crew', 'gender': 0, 'id': 7899, 'job': 'Supervising Technical Director', 'name': 'Galyn Susman', 'profile_path': None}, {'credit_id': '58948219c3a36840a40063a0', 'department': 'Sound', 'gender': 0, 'id': 21637, 'job': 'Orchestrator', 'name': 'Ira Hearshen', 'profile_path': None}, {'credit_id': '58946de3925141427e00517d', 'department': 'Editing', 'gender': 0, 'id': 113055, 'job': 'Additional Editing', 'name': 'Mildred Iatrou', 'profile_path': None}, {'credit_id': '5894818ec3a36840b5005d1c', 'department': 'Production', 'gender': 0, 'id': 84493, 'job': 'ADR Voice Casting', 'name': 'Mickie McGowan', 'profile_path': '/k7TjJBfINsg8vLQxJwos6XObAD6.jpg'}, {'credit_id': '589467e1c3a36840b1004fcd', 'department': 'Visual Effects', 'gender': 0, 'id': 78009, 'job': 'Character Designer', 'name': 'Colin Brady', 'profile_path': None}, {'credit_id': '58946bc8925141426c00547e', 'department': 'Visual Effects', 'gender': 1, 'id': 189120, 'job': 'Animation', 'name': 'Karen Prell', 'profile_path': None}, {'credit_id': '5894691c9251414278005384', 'department': 'Visual Effects', 'gender': 0, 'id': 231202, 'job': 'Animation Director', 'name': 'Dylan Brown', 'profile_path': None}, {'credit_id': '552c7d62c3a36861a1001f4c', 'department': 'Visual Effects', 'gender': 2, 'id': 384204, 'job': 'Animation', 'name': 'Anthony Scott', 'profile_path': None}, {'credit_id': '58946b8b925141427800557b', 'department': 'Visual Effects', 'gender': 0, 'id': 555795, 'job': 'Animation', 'name': 'Mark Oftedal', 'profile_path': None}, {'credit_id': '589466369251414271004cf4', 'department': 'Crew', 'gender': 0, 'id': 953331, 'job': 'Executive Music Producer', 'name': 'Chris Montan', 'profile_path': None}, {'credit_id': '58946c5bc3a36840a7005355', 'department': 'Visual Effects', 'gender': 0, 'id': 1092247, 'job': 'Animation', 'name': 'Mark A. Walsh', 'profile_path': None}, {'credit_id': '58946d33c3a368409f005116', 'department': 'Editing', 'gender': 1, 'id': 1108501, 'job': 'First Assistant Editor', 'name': 'Jennifer Leo Russ', 'profile_path': None}, {'credit_id': '58946ef4925141427a004ded', 'department': 'Crew', 'gender': 0, 'id': 1122223, 'job': 'Temp Music Editor', 'name': 'Barney Jones', 'profile_path': None}, {'credit_id': '58946ed2c3a36840b80054bf', 'department': 'Crew', 'gender': 2, 'id': 1122225, 'job': 'Temp Music Editor', 'name': 'David Slusser', 'profile_path': None}, {'credit_id': '552c4823925141387a000d67', 'department': 'Visual Effects', 'gender': 0, 'id': 1140576, 'job': 'Animation', 'name': 'Michael Parks', 'profile_path': None}, {'credit_id': '58946a9cc3a36840a200512f', 'department': 'Visual Effects', 'gender': 0, 'id': 1205975, 'job': 'Animation', 'name': 'Timothy Hittle', 'profile_path': None}, {'credit_id': '58946be192514142800052e5', 'department': 'Visual Effects', 'gender': 0, 'id': 1249957, 'job': 'Animation', 'name': 'Mike Quinn', 'profile_path': '/2cZDfz3lUM23OVrapFFqSXjPe8j.jpg'}, {'credit_id': '589468499251414275004db3', 'department': 'Visual Effects', 'gender': 0, 'id': 1258222, 'job': 'Visual Development', 'name': 'Dave Gordon', 'profile_path': None}, {'credit_id': '58946b1592514142710050aa', 'department': 'Visual Effects', 'gender': 0, 'id': 1262197, 'job': 'Animation', 'name': 'Peter Lepeniotis', 'profile_path': None}, {'credit_id': '58946838925141426e005382', 'department': 'Visual Effects', 'gender': 0, 'id': 1321700, 'job': 'Visual Development', 'name': 'Sean Hargreaves', 'profile_path': None}, {'credit_id': '58946c78c3a36840a7005375', 'department': 'Visual Effects', 'gender': 0, 'id': 1391429, 'job': 'Animation', 'name': 'Christina Yim', 'profile_path': None}, {'credit_id': '589468d5c3a36840ab004ea0', 'department': 'Art', 'gender': 0, 'id': 1397887, 'job': 'Set Dresser', 'name': 'Graham Moloy', 'profile_path': None}, {'credit_id': '58946e56925141427e0051dc', 'department': 'Editing', 'gender': 0, 'id': 1401794, 'job': 'Additional Editorial Assistant', 'name': 'Lucas Putnam', 'profile_path': None}, {'credit_id': '58946e7192514142780057bc', 'department': 'Editing', 'gender': 0, 'id': 1404532, 'job': 'Additional Editorial Assistant', 'name': 'Sarah Schubart', 'profile_path': None}, {'credit_id': '58946ad2c3a368409f004f7e', 'department': 'Visual Effects', 'gender': 0, 'id': 1406885, 'job': 'Animation', 'name': 'Steven Clay Hunter', 'profile_path': None}, {'credit_id': '589481189251414271006397', 'department': 'Sound', 'gender': 0, 'id': 1425978, 'job': 'Sound Re-Recording Mixer', 'name': 'Gary Summers', 'profile_path': None}, {'credit_id': '57c1be07925141444a001115', 'department': 'Editing', 'gender': 0, 'id': 1429549, 'job': 'Color Timer', 'name': 'Dale E. Grahn', 'profile_path': None}, {'credit_id': '58946fe592514142780058fe', 'department': 'Production', 'gender': 0, 'id': 1443479, 'job': 'Production Office Coordinator', 'name': 'A.J. Riebli III', 'profile_path': None}, {'credit_id': '5894825fc3a368409f006475', 'department': 'Art', 'gender': 0, 'id': 1458006, 'job': 'Title Designer', 'name': 'Susan Bradley', 'profile_path': None}, {'credit_id': '589468c1c3a36840b50048d2', 'department': 'Directing', 'gender': 0, 'id': 1459760, 'job': 'Layout', 'name': 'Adam Schnitzer', 'profile_path': None}, {'credit_id': '58946a0d9251414275004eda', 'department': 'Visual Effects', 'gender': 0, 'id': 1462679, 'job': 'Animation', 'name': 'Mark R.R. Farquhar', 'profile_path': None}, {'credit_id': '58946cb7c3a36840ab005186', 'department': 'Visual Effects', 'gender': 0, 'id': 1508427, 'job': 'Animation Department Coordinator', 'name': 'David Orecklin', 'profile_path': None}, {'credit_id': '58948153c3a36840a2006625', 'department': 'Sound', 'gender': 0, 'id': 1552883, 'job': 'Foley Editor', 'name': 'Mary Helen Leasman', 'profile_path': None}, {'credit_id': '5894820fc3a36840ab0063f5', 'department': 'Sound', 'gender': 0, 'id': 1623540, 'job': 'Orchestrator', 'name': 'Jonathan Sacks', 'profile_path': None}, {'credit_id': '589467ff9251414280005023', 'department': 'Visual Effects', 'gender': 0, 'id': 1623548, 'job': 'Character Designer', 'name': 'Dan Lee', 'profile_pa</t>
-  </si>
-  <si>
-    <t>h': None}, {'credit_id': '58946ad9c3a36840b10051da', 'department': 'Visual Effects', 'gender': 0, 'id': 1645696, 'job': 'Animation', 'name': 'Ethan Hurd', 'profile_path': None}, {'credit_id': '58946fa492514142800055bc', 'department': 'Camera', 'gender': 0, 'id': 1742751, 'job': 'Camera Technician', 'name': 'Jeff Wan', 'profile_path': None}, {'credit_id': '58946c20925141428000530f', 'department': 'Visual Effects', 'gender': 0, 'id': 1748691, 'job': 'Animation', 'name': 'Doug Sheppeck', 'profile_path': None}, {'credit_id': '589468a5925141426c00524f', 'department': 'Directing', 'gender': 0, 'id': 1748707, 'job': 'Layout', 'name': 'Roman Figun', 'profile_path': None}, {'credit_id': '58946e14c3a36840b8005426', 'department': 'Editing', 'gender': 0, 'id': 1748716, 'job': 'Additional Editorial Assistant', 'name': 'Tom Freeman', 'profile_path': None}, {'credit_id': '5894815dc3a36840a400630a', 'department': 'Sound', 'gender': 1, 'id': 1748724, 'job': 'Foley Editor', 'name': 'Susan Sanford', 'profile_path': None}, {'credit_id': '589467349251414271004dbb', 'department': 'Art', 'gender': 0, 'id': 1749735, 'job': 'Art Department Manager', 'name': 'Matt White', 'profile_path': None}, {'credit_id': '589467619251414280004faf', 'department': 'Art', 'gender': 0, 'id': 1749736, 'job': 'Assistant Art Director', 'name': 'David Skelly', 'profile_path': None}, {'credit_id': '58946858c3a36840b1005022', 'department': 'Art', 'gender': 0, 'id': 1749739, 'job': 'Art Department Coordinator', 'name': 'Jen Kinavey', 'profile_path': None}, {'credit_id': '5894689ec3a36840a2004fa8', 'department': 'Directing', 'gender': 0, 'id': 1749740, 'job': 'Layout', 'name': 'Wade Childress', 'profile_path': None}, {'credit_id': '589468b1c3a36840ab004e85', 'department': 'Directing', 'gender': 0, 'id': 1749741, 'job': 'Layout', 'name': 'Craig McGillivray', 'profile_path': None}, {'credit_id': '589468b9c3a36840a2004fc2', 'department': 'Directing', 'gender': 0, 'id': 1749742, 'job': 'Layout', 'name': 'Stephen Moros', 'profile_path': None}, {'credit_id': '589469929251414280005113', 'department': 'Visual Effects', 'gender': 0, 'id': 1749746, 'job': 'Animation', 'name': 'Nicolas Alan Barillaro', 'profile_path': None}, {'credit_id': '589469d09251414271004fbb', 'department': 'Visual Effects', 'gender': 0, 'id': 1749748, 'job': 'Animation', 'name': 'Jennifer Cha', 'profile_path': None}, {'credit_id': '589469f2925141427e004e91', 'department': 'Visual Effects', 'gender': 0, 'id': 1749749, 'job': 'Animation', 'name': 'Melanie Cordan', 'profile_path': None}, {'credit_id': '58946b04925141427100509d', 'department': 'Visual Effects', 'gender': 0, 'id': 1749757, 'job': 'Animation', 'name': 'Bob Koch', 'profile_path': None}, {'credit_id': '58946b69925141426e00560c', 'department': 'Visual Effects', 'gender': 0, 'id': 1749765, 'job': 'Animation', 'name': 'Karyn Metlen', 'profile_path': None}, {'credit_id': '58946b73c3a36840a70052c0', 'department': 'Visual Effects', 'gender': 0, 'id': 1749766, 'job': 'Animation', 'name': 'Valerie Mih', 'profile_path': None}, {'credit_id': '58946cabc3a36840b5004b87', 'department': 'Visual Effects', 'gender': 0, 'id': 1749773, 'job': 'Fix Animator', 'name': 'Andrea Schultz', 'profile_path': None}, {'credit_id': '58946e3d92514142800054a7', 'department': 'Editing', 'gender': 0, 'id': 1749775, 'job': 'Additional Editorial Assistant', 'name': 'Christian Hill', 'profile_path': None}, {'credit_id': '58946ec7c3a36840a700550e', 'department': 'Editing', 'gender': 0, 'id': 1749778, 'job': 'Additional Editorial Assistant', 'name': 'Mike Marsh', 'profile_path': None}]"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,6 +190,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -542,8 +544,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Colore 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -898,11 +901,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -964,16 +967,13 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
+      <c r="A11" s="1"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
+      <c r="A12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>